--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev_scripts\condorcet_tideman_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE98E86A-2310-4CCA-8DCE-AA16BDFCE1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D9511-36F6-479F-9A57-97B185C80D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="3165" windowWidth="28800" windowHeight="15345" xr2:uid="{28A22123-0DA2-4A7D-9EA3-3849F6B7845E}"/>
+    <workbookView xWindow="8295" yWindow="3285" windowWidth="28800" windowHeight="15345" xr2:uid="{28A22123-0DA2-4A7D-9EA3-3849F6B7845E}"/>
   </bookViews>
   <sheets>
     <sheet name="ExplicitRankingMod" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="1346">
   <si>
     <t>---</t>
   </si>
@@ -4062,6 +4062,18 @@
   </si>
   <si>
     <t>Candidate  1 &gt; Candidate  9 &gt; Candidate  3 &gt; Candidate  8 &gt; Candidate  7 &gt; Candidate  4 &gt; Candidate  2 &gt; Candidate 10 &gt; Candidate  6 &gt; Candidate  5</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>Felix Lechner</t>
+  </si>
+  <si>
+    <t>Jonathan Carter &gt; Hideki Yamane &gt; Felix Lechner &gt; None of the above</t>
+  </si>
+  <si>
+    <t>Jonathan Carter &gt; Hideki Yamane &gt; None of the above &gt; Felix Lechner</t>
   </si>
 </sst>
 </file>
@@ -12083,30 +12095,76 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110"/>
-      <c r="C110" s="9"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
-      <c r="R110"/>
-      <c r="S110"/>
-      <c r="T110"/>
-      <c r="U110"/>
-      <c r="V110"/>
-      <c r="W110"/>
+    <row r="110" spans="1:23" ht="33" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="V110" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="W110" s="3" t="s">
+        <v>1345</v>
+      </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
@@ -12391,11 +12449,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F589C8BF-0E64-4320-A37A-C5049C5FB472}">
-  <dimension ref="A1:W109"/>
+  <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109:C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20072,6 +20130,77 @@
         <v>1313</v>
       </c>
     </row>
+    <row r="110" spans="1:23" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B110" s="6">
+        <v>1</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Q110" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S110" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="T110" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="U110" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="V110" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="W110" s="6" t="s">
+        <v>1345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
